--- a/Daily_Task.xlsx
+++ b/Daily_Task.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swathi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swathi\Python\daily_status\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DB52B4-549E-4DD2-BCE3-65AA2B8A44F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7741E032-6959-4AD4-8E86-7361F7085E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>S.NO</t>
   </si>
@@ -36,16 +36,58 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>TASK</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
-    <t>SQL Queries:-1.New Table Creation, 2.Values Updates, 3.Filters (And &amp; Or &amp; Multiples), 4.Values Replace in Table, 5.Rename to Table Name</t>
-  </si>
-  <si>
-    <t>SQL Queries:-1.New Column Creation (Python And SQL), 2.Value Updates (Python And SQL), 3.Delete Column in Table, 4..Delete to Table, 5.Delete Total Values in Table</t>
+    <t>SQL Queries:-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          TASK</t>
+  </si>
+  <si>
+    <t>1.New Table Creation</t>
+  </si>
+  <si>
+    <t>2.Values Updates</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.Rename to Table Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.Values Replace in Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.Filters (And &amp; Or &amp; Multiples)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.Value Updates (Python And SQL) </t>
+  </si>
+  <si>
+    <t>1.New Column Creation(Python And SQL)</t>
+  </si>
+  <si>
+    <t>3.Delete  Column in Table(SQL)</t>
+  </si>
+  <si>
+    <t>4..Delete to Table(SQL)</t>
+  </si>
+  <si>
+    <t>5.Delete Total Values in Table(SQL)</t>
+  </si>
+  <si>
+    <t>SQL Queries And Python:-</t>
+  </si>
+  <si>
+    <t>1.Case When queries in SQL(single value update)</t>
+  </si>
+  <si>
+    <t>2.Np Where condition in Python (single value update)</t>
+  </si>
+  <si>
+    <t>1.Case When queries in SQL(multiple values updates)</t>
+  </si>
+  <si>
+    <t>2.Np Where condition in Python (multiple value updates)</t>
   </si>
 </sst>
 </file>
@@ -81,11 +123,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -367,63 +426,244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="136.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="64.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="5">
         <v>45635</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7">
+        <v>45636</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>3</v>
+      </c>
+      <c r="B14" s="7">
+        <v>45637</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45636</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
+      <c r="B17" s="7">
+        <v>45638</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A8:A13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Daily_Task.xlsx
+++ b/Daily_Task.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Status\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F87BEA-9BCD-457A-836F-B8ED0968E281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DCA3C4-2E7D-4AA0-8363-F068C486F8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="71">
   <si>
     <t>S.NO</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=tmiwKNf2SsE&amp;list=PLpgLWD7byQ3X-RzP-Mmt0Db0Flpkx_gfT</t>
+  </si>
+  <si>
+    <t>1.about apache spark explore</t>
   </si>
 </sst>
 </file>
@@ -313,10 +316,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -605,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T74"/>
+  <dimension ref="A1:T77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,7 +644,7 @@
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>45635</v>
       </c>
       <c r="C2" t="s">
@@ -653,7 +656,7 @@
     </row>
     <row r="3" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
-      <c r="B3" s="13"/>
+      <c r="B3" s="12"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -663,7 +666,7 @@
     </row>
     <row r="4" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
-      <c r="B4" s="13"/>
+      <c r="B4" s="12"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -673,7 +676,7 @@
     </row>
     <row r="5" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -685,7 +688,7 @@
     </row>
     <row r="6" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
-      <c r="B6" s="13"/>
+      <c r="B6" s="12"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -695,7 +698,7 @@
     </row>
     <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="13"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -707,7 +710,7 @@
       <c r="A8" s="11">
         <v>2</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="13">
         <v>45636</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -719,7 +722,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -730,7 +733,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
@@ -740,7 +743,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
@@ -750,7 +753,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -760,7 +763,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
@@ -772,7 +775,7 @@
       <c r="A14" s="11">
         <v>3</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="13">
         <v>45637</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -806,7 +809,7 @@
       <c r="A17" s="11">
         <v>4</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="13">
         <v>45638</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -840,7 +843,7 @@
       <c r="A20" s="11">
         <v>5</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="13">
         <v>45639</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -891,7 +894,7 @@
       <c r="A24" s="11">
         <v>7</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="13">
         <v>45642</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -903,7 +906,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
@@ -916,7 +919,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
@@ -926,7 +929,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
@@ -936,7 +939,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
@@ -946,7 +949,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
@@ -956,7 +959,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
@@ -966,7 +969,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
@@ -976,7 +979,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
@@ -986,7 +989,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="1" t="s">
         <v>34</v>
       </c>
@@ -996,7 +999,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="1" t="s">
         <v>35</v>
       </c>
@@ -1006,7 +1009,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1016,7 +1019,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="1" t="s">
         <v>37</v>
       </c>
@@ -1028,7 +1031,7 @@
       <c r="A37" s="11">
         <v>8</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="13">
         <v>45643</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1040,7 +1043,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="1" t="s">
         <v>39</v>
       </c>
@@ -1050,7 +1053,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="1" t="s">
         <v>40</v>
       </c>
@@ -1060,7 +1063,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1070,7 +1073,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1082,7 +1085,7 @@
       <c r="A42" s="11">
         <v>9</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="13">
         <v>45644</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1094,7 +1097,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1104,7 +1107,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="1" t="s">
         <v>41</v>
       </c>
@@ -1114,7 +1117,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1124,7 +1127,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="1" t="s">
         <v>45</v>
       </c>
@@ -1136,7 +1139,7 @@
       <c r="A47" s="11">
         <v>10</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="13">
         <v>45645</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1148,7 +1151,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
+      <c r="B48" s="13"/>
       <c r="C48" s="3" t="s">
         <v>46</v>
       </c>
@@ -1158,7 +1161,7 @@
     </row>
     <row r="49" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
+      <c r="B49" s="13"/>
       <c r="C49" s="8" t="s">
         <v>47</v>
       </c>
@@ -1170,7 +1173,7 @@
       <c r="A50" s="11">
         <v>11</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="13">
         <v>45646</v>
       </c>
       <c r="C50" s="9" t="s">
@@ -1182,7 +1185,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
+      <c r="B51" s="13"/>
       <c r="C51" t="s">
         <v>50</v>
       </c>
@@ -1194,7 +1197,7 @@
       <c r="A52" s="11">
         <v>12</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="13">
         <v>45649</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -1232,7 +1235,7 @@
       <c r="A55" s="11">
         <v>14</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="13">
         <v>45652</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -1280,7 +1283,7 @@
       <c r="A59" s="11">
         <v>16</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="13">
         <v>45656</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -1342,7 +1345,7 @@
       <c r="A64" s="11">
         <v>19</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="13">
         <v>45659</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -1400,7 +1403,7 @@
       <c r="A69" s="11">
         <v>21</v>
       </c>
-      <c r="B69" s="12">
+      <c r="B69" s="13">
         <v>45663</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -1412,7 +1415,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
-      <c r="B70" s="12"/>
+      <c r="B70" s="13"/>
       <c r="C70" s="1" t="s">
         <v>64</v>
       </c>
@@ -1424,7 +1427,7 @@
       <c r="A71" s="11">
         <v>22</v>
       </c>
-      <c r="B71" s="12">
+      <c r="B71" s="13">
         <v>45664</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -1454,7 +1457,7 @@
       <c r="A73" s="11">
         <v>23</v>
       </c>
-      <c r="B73" s="12">
+      <c r="B73" s="13">
         <v>45665</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -1477,14 +1480,58 @@
         <v>3</v>
       </c>
     </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>24</v>
+      </c>
+      <c r="B75" s="6">
+        <v>45666</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="11">
+        <v>25</v>
+      </c>
+      <c r="B76" s="13">
+        <v>45667</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="38">
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="A64:A67"/>
     <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="A37:A41"/>
@@ -1499,10 +1546,8 @@
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B8:B13"/>
@@ -1513,8 +1558,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1" display="https://github.com/Swathiloya/Daily_Status" xr:uid="{C3116F7F-791E-4165-A1F6-266C944CBF68}"/>

--- a/Daily_Task.xlsx
+++ b/Daily_Task.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DCA3C4-2E7D-4AA0-8363-F068C486F8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D30A903-48A6-4695-8288-9F6E78A6277A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="71">
   <si>
     <t>S.NO</t>
   </si>
@@ -282,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -316,9 +316,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -326,6 +323,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -608,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T77"/>
+  <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78:B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,7 +647,7 @@
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="15">
         <v>45635</v>
       </c>
       <c r="C2" t="s">
@@ -656,7 +659,7 @@
     </row>
     <row r="3" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
+      <c r="B3" s="15"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -666,7 +669,7 @@
     </row>
     <row r="4" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="15"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -676,7 +679,7 @@
     </row>
     <row r="5" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
+      <c r="B5" s="15"/>
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -688,7 +691,7 @@
     </row>
     <row r="6" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
+      <c r="B6" s="15"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -698,7 +701,7 @@
     </row>
     <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -710,7 +713,7 @@
       <c r="A8" s="11">
         <v>2</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>45636</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -722,7 +725,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="13"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -733,7 +736,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
-      <c r="B10" s="13"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
@@ -743,7 +746,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
-      <c r="B11" s="13"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
@@ -753,7 +756,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
-      <c r="B12" s="13"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -763,7 +766,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
-      <c r="B13" s="13"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
@@ -775,7 +778,7 @@
       <c r="A14" s="11">
         <v>3</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>45637</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -809,7 +812,7 @@
       <c r="A17" s="11">
         <v>4</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>45638</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -843,7 +846,7 @@
       <c r="A20" s="11">
         <v>5</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>45639</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -894,7 +897,7 @@
       <c r="A24" s="11">
         <v>7</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>45642</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -906,7 +909,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="13"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
@@ -919,7 +922,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
-      <c r="B26" s="13"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
@@ -929,7 +932,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
-      <c r="B27" s="13"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
@@ -939,7 +942,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
-      <c r="B28" s="13"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
@@ -949,7 +952,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
-      <c r="B29" s="13"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
@@ -959,7 +962,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
-      <c r="B30" s="13"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
@@ -969,7 +972,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
-      <c r="B31" s="13"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
@@ -979,7 +982,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
-      <c r="B32" s="13"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
@@ -989,7 +992,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
-      <c r="B33" s="13"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="1" t="s">
         <v>34</v>
       </c>
@@ -999,7 +1002,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
-      <c r="B34" s="13"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="1" t="s">
         <v>35</v>
       </c>
@@ -1009,7 +1012,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
-      <c r="B35" s="13"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1019,7 +1022,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
-      <c r="B36" s="13"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="1" t="s">
         <v>37</v>
       </c>
@@ -1031,7 +1034,7 @@
       <c r="A37" s="11">
         <v>8</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="12">
         <v>45643</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1043,7 +1046,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="13"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="1" t="s">
         <v>39</v>
       </c>
@@ -1053,7 +1056,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
-      <c r="B39" s="13"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="1" t="s">
         <v>40</v>
       </c>
@@ -1063,7 +1066,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
-      <c r="B40" s="13"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1073,7 +1076,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
-      <c r="B41" s="13"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1085,7 +1088,7 @@
       <c r="A42" s="11">
         <v>9</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="12">
         <v>45644</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1097,7 +1100,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
-      <c r="B43" s="13"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1107,7 +1110,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
-      <c r="B44" s="13"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="1" t="s">
         <v>41</v>
       </c>
@@ -1117,7 +1120,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
-      <c r="B45" s="13"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1127,7 +1130,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
-      <c r="B46" s="13"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="1" t="s">
         <v>45</v>
       </c>
@@ -1139,7 +1142,7 @@
       <c r="A47" s="11">
         <v>10</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="12">
         <v>45645</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1151,7 +1154,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
-      <c r="B48" s="13"/>
+      <c r="B48" s="12"/>
       <c r="C48" s="3" t="s">
         <v>46</v>
       </c>
@@ -1161,7 +1164,7 @@
     </row>
     <row r="49" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
-      <c r="B49" s="13"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="8" t="s">
         <v>47</v>
       </c>
@@ -1173,7 +1176,7 @@
       <c r="A50" s="11">
         <v>11</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="12">
         <v>45646</v>
       </c>
       <c r="C50" s="9" t="s">
@@ -1185,7 +1188,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
-      <c r="B51" s="13"/>
+      <c r="B51" s="12"/>
       <c r="C51" t="s">
         <v>50</v>
       </c>
@@ -1197,7 +1200,7 @@
       <c r="A52" s="11">
         <v>12</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="12">
         <v>45649</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -1235,7 +1238,7 @@
       <c r="A55" s="11">
         <v>14</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="12">
         <v>45652</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -1283,7 +1286,7 @@
       <c r="A59" s="11">
         <v>16</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="12">
         <v>45656</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -1307,7 +1310,7 @@
       <c r="A61" s="11">
         <v>17</v>
       </c>
-      <c r="B61" s="14">
+      <c r="B61" s="13">
         <v>45657</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -1319,7 +1322,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
-      <c r="B62" s="15"/>
+      <c r="B62" s="14"/>
       <c r="C62" s="1" t="s">
         <v>56</v>
       </c>
@@ -1345,7 +1348,7 @@
       <c r="A64" s="11">
         <v>19</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="12">
         <v>45659</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -1403,7 +1406,7 @@
       <c r="A69" s="11">
         <v>21</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B69" s="12">
         <v>45663</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -1415,7 +1418,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
-      <c r="B70" s="13"/>
+      <c r="B70" s="12"/>
       <c r="C70" s="1" t="s">
         <v>64</v>
       </c>
@@ -1427,7 +1430,7 @@
       <c r="A71" s="11">
         <v>22</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71" s="12">
         <v>45664</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -1457,7 +1460,7 @@
       <c r="A73" s="11">
         <v>23</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73" s="12">
         <v>45665</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -1498,7 +1501,7 @@
       <c r="A76" s="11">
         <v>25</v>
       </c>
-      <c r="B76" s="13">
+      <c r="B76" s="12">
         <v>45667</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -1518,20 +1521,44 @@
         <v>3</v>
       </c>
     </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="11">
+        <v>26</v>
+      </c>
+      <c r="B78" s="12">
+        <v>45670</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D78" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
+  <mergeCells count="40">
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="A37:A41"/>
@@ -1548,16 +1575,18 @@
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1" display="https://github.com/Swathiloya/Daily_Status" xr:uid="{C3116F7F-791E-4165-A1F6-266C944CBF68}"/>

--- a/Daily_Task.xlsx
+++ b/Daily_Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D30A903-48A6-4695-8288-9F6E78A6277A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441BE2E9-9832-43ED-AA53-8D7B3E6E865E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="80">
   <si>
     <t>S.NO</t>
   </si>
@@ -238,13 +238,40 @@
   </si>
   <si>
     <t>1.about apache spark explore</t>
+  </si>
+  <si>
+    <t>1.Introduction to  Scala</t>
+  </si>
+  <si>
+    <t>2.Introduction to  SBT</t>
+  </si>
+  <si>
+    <t>3.How to Install and Setup SBT on Windows 10</t>
+  </si>
+  <si>
+    <t>4.How to Install and Setup SBT on  Ubuntu Linux</t>
+  </si>
+  <si>
+    <t>5.How to Install Scala on Mac</t>
+  </si>
+  <si>
+    <t>6.Data Types and Variables</t>
+  </si>
+  <si>
+    <t>Scala videos  watching:-</t>
+  </si>
+  <si>
+    <t>7Understanding the Dev Ops Project Work process</t>
+  </si>
+  <si>
+    <t>16-01-0225</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +283,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -319,15 +354,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -611,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T79"/>
+  <dimension ref="A1:T87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78:B79"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,7 +682,7 @@
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="13">
         <v>45635</v>
       </c>
       <c r="C2" t="s">
@@ -659,7 +694,7 @@
     </row>
     <row r="3" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
-      <c r="B3" s="15"/>
+      <c r="B3" s="13"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -669,7 +704,7 @@
     </row>
     <row r="4" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
-      <c r="B4" s="15"/>
+      <c r="B4" s="13"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -679,7 +714,7 @@
     </row>
     <row r="5" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="15"/>
+      <c r="B5" s="13"/>
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -691,7 +726,7 @@
     </row>
     <row r="6" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
-      <c r="B6" s="15"/>
+      <c r="B6" s="13"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -701,7 +736,7 @@
     </row>
     <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="15"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1310,7 +1345,7 @@
       <c r="A61" s="11">
         <v>17</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="14">
         <v>45657</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -1322,7 +1357,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
-      <c r="B62" s="14"/>
+      <c r="B62" s="15"/>
       <c r="C62" s="1" t="s">
         <v>56</v>
       </c>
@@ -1528,7 +1563,7 @@
       <c r="B78" s="12">
         <v>45670</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D78" t="s">
@@ -1545,8 +1580,118 @@
         <v>3</v>
       </c>
     </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="11">
+        <v>27</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="42">
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="B80:B87"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A24:A36"/>
+    <mergeCell ref="B24:B36"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
     <mergeCell ref="A78:A79"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="A2:A7"/>
@@ -1563,30 +1708,6 @@
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="B37:B41"/>
-    <mergeCell ref="A24:A36"/>
-    <mergeCell ref="B24:B36"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1" display="https://github.com/Swathiloya/Daily_Status" xr:uid="{C3116F7F-791E-4165-A1F6-266C944CBF68}"/>

--- a/Daily_Task.xlsx
+++ b/Daily_Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441BE2E9-9832-43ED-AA53-8D7B3E6E865E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AD0E8C-B3FC-4159-935E-441F9710AC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="86">
   <si>
     <t>S.NO</t>
   </si>
@@ -261,10 +261,28 @@
     <t>Scala videos  watching:-</t>
   </si>
   <si>
-    <t>7Understanding the Dev Ops Project Work process</t>
-  </si>
-  <si>
     <t>16-01-0225</t>
+  </si>
+  <si>
+    <t>7.Understanding the Dev Ops Project Work process</t>
+  </si>
+  <si>
+    <t>1.How to install scala IDE Windows</t>
+  </si>
+  <si>
+    <t>2.How to setup  Scala on intellj</t>
+  </si>
+  <si>
+    <t>3.Scala string inter polation</t>
+  </si>
+  <si>
+    <t>4.Scala If Else Statement</t>
+  </si>
+  <si>
+    <t>5.Scala while loop and do- while loop</t>
+  </si>
+  <si>
+    <t>6.Understanding the Dev Ops Project Work process</t>
   </si>
 </sst>
 </file>
@@ -347,6 +365,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -361,9 +382,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -646,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T87"/>
+  <dimension ref="A1:T94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="B87" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88:B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,10 +697,10 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="14">
         <v>45635</v>
       </c>
       <c r="C2" t="s">
@@ -693,8 +711,8 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="14"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -703,8 +721,8 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="14"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -713,8 +731,8 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="14"/>
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -725,8 +743,8 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="14"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -735,8 +753,8 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -745,10 +763,10 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="13">
         <v>45636</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -759,8 +777,8 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -770,8 +788,8 @@
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
@@ -780,8 +798,8 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
@@ -790,8 +808,8 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -800,8 +818,8 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
@@ -810,10 +828,10 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
-        <v>3</v>
-      </c>
-      <c r="B14" s="12">
+      <c r="A14" s="12">
+        <v>3</v>
+      </c>
+      <c r="B14" s="13">
         <v>45637</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -824,8 +842,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
@@ -834,8 +852,8 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
@@ -844,10 +862,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="A17" s="12">
         <v>4</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="13">
         <v>45638</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -858,8 +876,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
@@ -868,8 +886,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
@@ -878,10 +896,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
+      <c r="A20" s="12">
         <v>5</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="13">
         <v>45639</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -895,8 +913,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
@@ -905,8 +923,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
@@ -929,10 +947,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
+      <c r="A24" s="12">
         <v>7</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="13">
         <v>45642</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -943,8 +961,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
@@ -956,8 +974,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
@@ -966,8 +984,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
@@ -976,8 +994,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
@@ -986,8 +1004,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
@@ -996,8 +1014,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1006,8 +1024,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1016,8 +1034,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1026,8 +1044,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="1" t="s">
         <v>34</v>
       </c>
@@ -1036,8 +1054,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="1" t="s">
         <v>35</v>
       </c>
@@ -1046,8 +1064,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1056,8 +1074,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="1" t="s">
         <v>37</v>
       </c>
@@ -1066,10 +1084,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
+      <c r="A37" s="12">
         <v>8</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="13">
         <v>45643</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1080,8 +1098,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="1" t="s">
         <v>39</v>
       </c>
@@ -1090,8 +1108,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="1" t="s">
         <v>40</v>
       </c>
@@ -1100,8 +1118,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1110,8 +1128,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1120,10 +1138,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="11">
+      <c r="A42" s="12">
         <v>9</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="13">
         <v>45644</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1134,8 +1152,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1144,8 +1162,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="1" t="s">
         <v>41</v>
       </c>
@@ -1154,8 +1172,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1164,8 +1182,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="1" t="s">
         <v>45</v>
       </c>
@@ -1174,10 +1192,10 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
+      <c r="A47" s="12">
         <v>10</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="13">
         <v>45645</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1188,8 +1206,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
       <c r="C48" s="3" t="s">
         <v>46</v>
       </c>
@@ -1198,8 +1216,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
       <c r="C49" s="8" t="s">
         <v>47</v>
       </c>
@@ -1208,10 +1226,10 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="11">
+      <c r="A50" s="12">
         <v>11</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="13">
         <v>45646</v>
       </c>
       <c r="C50" s="9" t="s">
@@ -1222,8 +1240,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
       <c r="C51" t="s">
         <v>50</v>
       </c>
@@ -1232,10 +1250,10 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="11">
+      <c r="A52" s="12">
         <v>12</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="13">
         <v>45649</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -1246,8 +1264,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
       <c r="C53" s="1" t="s">
         <v>51</v>
       </c>
@@ -1270,10 +1288,10 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="11">
+      <c r="A55" s="12">
         <v>14</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="13">
         <v>45652</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -1284,8 +1302,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
       <c r="C56" s="1" t="s">
         <v>53</v>
       </c>
@@ -1294,8 +1312,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
       <c r="C57" s="1" t="s">
         <v>47</v>
       </c>
@@ -1318,10 +1336,10 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="11">
+      <c r="A59" s="12">
         <v>16</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="13">
         <v>45656</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -1332,8 +1350,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
       <c r="C60" s="1" t="s">
         <v>55</v>
       </c>
@@ -1342,10 +1360,10 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="11">
+      <c r="A61" s="12">
         <v>17</v>
       </c>
-      <c r="B61" s="14">
+      <c r="B61" s="15">
         <v>45657</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -1356,8 +1374,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="11"/>
-      <c r="B62" s="15"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="1" t="s">
         <v>56</v>
       </c>
@@ -1380,10 +1398,10 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="11">
+      <c r="A64" s="12">
         <v>19</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="13">
         <v>45659</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -1394,8 +1412,8 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -1404,8 +1422,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -1414,8 +1432,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -1438,10 +1456,10 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="11">
+      <c r="A69" s="12">
         <v>21</v>
       </c>
-      <c r="B69" s="12">
+      <c r="B69" s="13">
         <v>45663</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -1452,8 +1470,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="11"/>
-      <c r="B70" s="12"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="13"/>
       <c r="C70" s="1" t="s">
         <v>64</v>
       </c>
@@ -1462,10 +1480,10 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="11">
+      <c r="A71" s="12">
         <v>22</v>
       </c>
-      <c r="B71" s="12">
+      <c r="B71" s="13">
         <v>45664</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -1479,8 +1497,8 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
       <c r="C72" s="1" t="s">
         <v>67</v>
       </c>
@@ -1492,10 +1510,10 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="11">
+      <c r="A73" s="12">
         <v>23</v>
       </c>
-      <c r="B73" s="12">
+      <c r="B73" s="13">
         <v>45665</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -1509,8 +1527,8 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
       <c r="C74" s="1" t="s">
         <v>50</v>
       </c>
@@ -1533,10 +1551,10 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="11">
+      <c r="A76" s="12">
         <v>25</v>
       </c>
-      <c r="B76" s="12">
+      <c r="B76" s="13">
         <v>45667</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -1547,8 +1565,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
       <c r="C77" s="1" t="s">
         <v>50</v>
       </c>
@@ -1557,10 +1575,10 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="11">
+      <c r="A78" s="12">
         <v>26</v>
       </c>
-      <c r="B78" s="12">
+      <c r="B78" s="13">
         <v>45670</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -1571,8 +1589,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
       <c r="C79" s="1" t="s">
         <v>50</v>
       </c>
@@ -1581,13 +1599,13 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="11">
+      <c r="A80" s="12">
         <v>27</v>
       </c>
-      <c r="B80" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C80" s="16" t="s">
+      <c r="B80" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="11" t="s">
         <v>77</v>
       </c>
       <c r="D80" t="s">
@@ -1595,8 +1613,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
       <c r="C81" s="1" t="s">
         <v>71</v>
       </c>
@@ -1605,8 +1623,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
       <c r="C82" s="1" t="s">
         <v>72</v>
       </c>
@@ -1615,8 +1633,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
       <c r="C83" s="1" t="s">
         <v>73</v>
       </c>
@@ -1625,8 +1643,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
       <c r="C84" s="1" t="s">
         <v>74</v>
       </c>
@@ -1635,8 +1653,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
       <c r="C85" s="1" t="s">
         <v>75</v>
       </c>
@@ -1645,8 +1663,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
       <c r="C86" s="1" t="s">
         <v>76</v>
       </c>
@@ -1655,17 +1673,93 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
       <c r="C87" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D87" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="12">
+        <v>28</v>
+      </c>
+      <c r="B88" s="13">
+        <v>45674</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="12"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="12"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="12"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D94" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="44">
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="B88:B94"/>
     <mergeCell ref="A80:A87"/>
     <mergeCell ref="B80:B87"/>
     <mergeCell ref="A55:A57"/>

--- a/Daily_Task.xlsx
+++ b/Daily_Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AD0E8C-B3FC-4159-935E-441F9710AC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F63A415-3ED5-46B2-A8F1-5113D0E9F5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="88">
   <si>
     <t>S.NO</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>6.Understanding the Dev Ops Project Work process</t>
+  </si>
+  <si>
+    <t>1.Understanding the Fhir Project Work process</t>
+  </si>
+  <si>
+    <t>2.SQL all Queries Practices</t>
   </si>
 </sst>
 </file>
@@ -375,13 +381,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -664,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T94"/>
+  <dimension ref="A1:T96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B87" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88:B94"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95:A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,7 +706,7 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="16">
         <v>45635</v>
       </c>
       <c r="C2" t="s">
@@ -712,7 +718,7 @@
     </row>
     <row r="3" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
-      <c r="B3" s="14"/>
+      <c r="B3" s="16"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -722,7 +728,7 @@
     </row>
     <row r="4" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
-      <c r="B4" s="14"/>
+      <c r="B4" s="16"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -732,7 +738,7 @@
     </row>
     <row r="5" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
-      <c r="B5" s="14"/>
+      <c r="B5" s="16"/>
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -744,7 +750,7 @@
     </row>
     <row r="6" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
-      <c r="B6" s="14"/>
+      <c r="B6" s="16"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -754,7 +760,7 @@
     </row>
     <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
-      <c r="B7" s="14"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1363,7 +1369,7 @@
       <c r="A61" s="12">
         <v>17</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="14">
         <v>45657</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -1375,7 +1381,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
-      <c r="B62" s="16"/>
+      <c r="B62" s="15"/>
       <c r="C62" s="1" t="s">
         <v>56</v>
       </c>
@@ -1756,8 +1762,62 @@
         <v>3</v>
       </c>
     </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="12">
+        <v>29</v>
+      </c>
+      <c r="B95" s="13">
+        <v>45677</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D95" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="12"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D96" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="46">
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A24:A36"/>
+    <mergeCell ref="B24:B36"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
     <mergeCell ref="A88:A94"/>
     <mergeCell ref="B88:B94"/>
     <mergeCell ref="A80:A87"/>
@@ -1774,34 +1834,6 @@
     <mergeCell ref="B64:B67"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="A24:A36"/>
-    <mergeCell ref="B24:B36"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1" display="https://github.com/Swathiloya/Daily_Status" xr:uid="{C3116F7F-791E-4165-A1F6-266C944CBF68}"/>

--- a/Daily_Task.xlsx
+++ b/Daily_Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F63A415-3ED5-46B2-A8F1-5113D0E9F5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66EBDE8-C02E-41CB-A22B-75A5A9C21636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="90">
   <si>
     <t>S.NO</t>
   </si>
@@ -289,6 +289,12 @@
   </si>
   <si>
     <t>2.SQL all Queries Practices</t>
+  </si>
+  <si>
+    <t>1.pandas filters practice</t>
+  </si>
+  <si>
+    <t>2.pandas concat practice</t>
   </si>
 </sst>
 </file>
@@ -374,20 +380,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -670,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T96"/>
+  <dimension ref="A1:T98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:A96"/>
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,10 +709,10 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="14">
         <v>45635</v>
       </c>
       <c r="C2" t="s">
@@ -717,8 +723,8 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -727,8 +733,8 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -737,8 +743,8 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -749,8 +755,8 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -759,8 +765,8 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -769,10 +775,10 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="A8" s="13">
         <v>2</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>45636</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -783,8 +789,8 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -794,8 +800,8 @@
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
@@ -804,8 +810,8 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
@@ -814,8 +820,8 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -824,8 +830,8 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
@@ -834,10 +840,10 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>3</v>
-      </c>
-      <c r="B14" s="13">
+      <c r="A14" s="13">
+        <v>3</v>
+      </c>
+      <c r="B14" s="12">
         <v>45637</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -848,8 +854,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
@@ -858,8 +864,8 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
@@ -868,10 +874,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="A17" s="13">
         <v>4</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>45638</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -882,8 +888,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
@@ -892,8 +898,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
@@ -902,10 +908,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
+      <c r="A20" s="13">
         <v>5</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>45639</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -919,8 +925,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
@@ -929,8 +935,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
@@ -953,10 +959,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
+      <c r="A24" s="13">
         <v>7</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>45642</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -967,8 +973,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
@@ -980,8 +986,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
@@ -990,8 +996,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1000,8 +1006,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1010,8 +1016,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
@@ -1020,8 +1026,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1030,8 +1036,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1040,8 +1046,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1050,8 +1056,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="1" t="s">
         <v>34</v>
       </c>
@@ -1060,8 +1066,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="1" t="s">
         <v>35</v>
       </c>
@@ -1070,8 +1076,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1080,8 +1086,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="1" t="s">
         <v>37</v>
       </c>
@@ -1090,10 +1096,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="12">
+      <c r="A37" s="13">
         <v>8</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="12">
         <v>45643</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1104,8 +1110,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="1" t="s">
         <v>39</v>
       </c>
@@ -1114,8 +1120,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="1" t="s">
         <v>40</v>
       </c>
@@ -1124,8 +1130,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1134,8 +1140,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1144,10 +1150,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="12">
+      <c r="A42" s="13">
         <v>9</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="12">
         <v>45644</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1158,8 +1164,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1168,8 +1174,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="1" t="s">
         <v>41</v>
       </c>
@@ -1178,8 +1184,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1188,8 +1194,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="1" t="s">
         <v>45</v>
       </c>
@@ -1198,10 +1204,10 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="12">
+      <c r="A47" s="13">
         <v>10</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="12">
         <v>45645</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1212,8 +1218,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="12"/>
       <c r="C48" s="3" t="s">
         <v>46</v>
       </c>
@@ -1222,8 +1228,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="8" t="s">
         <v>47</v>
       </c>
@@ -1232,10 +1238,10 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12">
+      <c r="A50" s="13">
         <v>11</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="12">
         <v>45646</v>
       </c>
       <c r="C50" s="9" t="s">
@@ -1246,8 +1252,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="12"/>
       <c r="C51" t="s">
         <v>50</v>
       </c>
@@ -1256,10 +1262,10 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="12">
+      <c r="A52" s="13">
         <v>12</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="12">
         <v>45649</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -1270,8 +1276,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
       <c r="C53" s="1" t="s">
         <v>51</v>
       </c>
@@ -1294,10 +1300,10 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="12">
+      <c r="A55" s="13">
         <v>14</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="12">
         <v>45652</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -1308,8 +1314,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
       <c r="C56" s="1" t="s">
         <v>53</v>
       </c>
@@ -1318,8 +1324,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
       <c r="C57" s="1" t="s">
         <v>47</v>
       </c>
@@ -1342,10 +1348,10 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="12">
+      <c r="A59" s="13">
         <v>16</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="12">
         <v>45656</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -1356,8 +1362,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="1" t="s">
         <v>55</v>
       </c>
@@ -1366,10 +1372,10 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="12">
+      <c r="A61" s="13">
         <v>17</v>
       </c>
-      <c r="B61" s="14">
+      <c r="B61" s="15">
         <v>45657</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -1380,8 +1386,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="12"/>
-      <c r="B62" s="15"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="1" t="s">
         <v>56</v>
       </c>
@@ -1404,10 +1410,10 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="12">
+      <c r="A64" s="13">
         <v>19</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="12">
         <v>45659</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -1418,8 +1424,8 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -1428,8 +1434,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -1438,8 +1444,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -1462,10 +1468,10 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="12">
+      <c r="A69" s="13">
         <v>21</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B69" s="12">
         <v>45663</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -1476,8 +1482,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="12"/>
-      <c r="B70" s="13"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="12"/>
       <c r="C70" s="1" t="s">
         <v>64</v>
       </c>
@@ -1486,10 +1492,10 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="12">
+      <c r="A71" s="13">
         <v>22</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71" s="12">
         <v>45664</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -1503,8 +1509,8 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
       <c r="C72" s="1" t="s">
         <v>67</v>
       </c>
@@ -1516,10 +1522,10 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="12">
+      <c r="A73" s="13">
         <v>23</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73" s="12">
         <v>45665</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -1533,8 +1539,8 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
       <c r="C74" s="1" t="s">
         <v>50</v>
       </c>
@@ -1557,10 +1563,10 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="12">
+      <c r="A76" s="13">
         <v>25</v>
       </c>
-      <c r="B76" s="13">
+      <c r="B76" s="12">
         <v>45667</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -1571,8 +1577,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
       <c r="C77" s="1" t="s">
         <v>50</v>
       </c>
@@ -1581,10 +1587,10 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="12">
+      <c r="A78" s="13">
         <v>26</v>
       </c>
-      <c r="B78" s="13">
+      <c r="B78" s="12">
         <v>45670</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -1595,8 +1601,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
       <c r="C79" s="1" t="s">
         <v>50</v>
       </c>
@@ -1605,10 +1611,10 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="12">
+      <c r="A80" s="13">
         <v>27</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="13" t="s">
         <v>78</v>
       </c>
       <c r="C80" s="11" t="s">
@@ -1619,8 +1625,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
       <c r="C81" s="1" t="s">
         <v>71</v>
       </c>
@@ -1629,8 +1635,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="13"/>
       <c r="C82" s="1" t="s">
         <v>72</v>
       </c>
@@ -1639,8 +1645,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
+      <c r="A83" s="13"/>
+      <c r="B83" s="13"/>
       <c r="C83" s="1" t="s">
         <v>73</v>
       </c>
@@ -1649,8 +1655,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
       <c r="C84" s="1" t="s">
         <v>74</v>
       </c>
@@ -1659,8 +1665,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
       <c r="C85" s="1" t="s">
         <v>75</v>
       </c>
@@ -1669,8 +1675,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
       <c r="C86" s="1" t="s">
         <v>76</v>
       </c>
@@ -1679,8 +1685,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="13"/>
       <c r="C87" s="1" t="s">
         <v>79</v>
       </c>
@@ -1689,10 +1695,10 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="12">
+      <c r="A88" s="13">
         <v>28</v>
       </c>
-      <c r="B88" s="13">
+      <c r="B88" s="12">
         <v>45674</v>
       </c>
       <c r="C88" s="11" t="s">
@@ -1703,8 +1709,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
+      <c r="A89" s="13"/>
+      <c r="B89" s="13"/>
       <c r="C89" s="1" t="s">
         <v>80</v>
       </c>
@@ -1713,8 +1719,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
+      <c r="A90" s="13"/>
+      <c r="B90" s="13"/>
       <c r="C90" s="1" t="s">
         <v>81</v>
       </c>
@@ -1723,8 +1729,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="13"/>
       <c r="C91" s="1" t="s">
         <v>82</v>
       </c>
@@ -1733,8 +1739,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
+      <c r="A92" s="13"/>
+      <c r="B92" s="13"/>
       <c r="C92" s="1" t="s">
         <v>83</v>
       </c>
@@ -1743,8 +1749,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
+      <c r="A93" s="13"/>
+      <c r="B93" s="13"/>
       <c r="C93" s="1" t="s">
         <v>84</v>
       </c>
@@ -1753,8 +1759,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
+      <c r="A94" s="13"/>
+      <c r="B94" s="13"/>
       <c r="C94" s="1" t="s">
         <v>85</v>
       </c>
@@ -1763,10 +1769,10 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="12">
+      <c r="A95" s="13">
         <v>29</v>
       </c>
-      <c r="B95" s="13">
+      <c r="B95" s="12">
         <v>45677</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -1777,8 +1783,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="13"/>
       <c r="C96" s="1" t="s">
         <v>87</v>
       </c>
@@ -1786,8 +1792,64 @@
         <v>3</v>
       </c>
     </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="13">
+        <v>30</v>
+      </c>
+      <c r="B97" s="12">
+        <v>45678</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D98" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="48">
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="B88:B94"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="B80:B87"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A24:A36"/>
+    <mergeCell ref="B24:B36"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
     <mergeCell ref="B95:B96"/>
     <mergeCell ref="A95:A96"/>
     <mergeCell ref="A78:A79"/>
@@ -1804,36 +1866,6 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="A24:A36"/>
-    <mergeCell ref="B24:B36"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="B88:B94"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="B80:B87"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1" display="https://github.com/Swathiloya/Daily_Status" xr:uid="{C3116F7F-791E-4165-A1F6-266C944CBF68}"/>

--- a/Daily_Task.xlsx
+++ b/Daily_Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66EBDE8-C02E-41CB-A22B-75A5A9C21636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDE7DF5-0022-4005-AE17-166A1A81485D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>S.NO</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>2.pandas concat practice</t>
+  </si>
+  <si>
+    <t>1.snowflake vedios watching  (5 vedios completed)</t>
+  </si>
+  <si>
+    <t>2.pandas merge practice</t>
   </si>
 </sst>
 </file>
@@ -380,20 +386,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -676,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T98"/>
+  <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C104" activeCellId="1" sqref="B99:B100 C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,10 +715,10 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="16">
         <v>45635</v>
       </c>
       <c r="C2" t="s">
@@ -723,8 +729,8 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="16"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -733,8 +739,8 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="16"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -743,8 +749,8 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="16"/>
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -755,8 +761,8 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="16"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -765,8 +771,8 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -775,10 +781,10 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="13">
         <v>45636</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -789,8 +795,8 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -800,8 +806,8 @@
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
@@ -810,8 +816,8 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
@@ -820,8 +826,8 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -830,8 +836,8 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
@@ -840,10 +846,10 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
-        <v>3</v>
-      </c>
-      <c r="B14" s="12">
+      <c r="A14" s="12">
+        <v>3</v>
+      </c>
+      <c r="B14" s="13">
         <v>45637</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -854,8 +860,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
@@ -864,8 +870,8 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
@@ -874,10 +880,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <v>4</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="13">
         <v>45638</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -888,8 +894,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
@@ -898,8 +904,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
@@ -908,10 +914,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>5</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="13">
         <v>45639</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -925,8 +931,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
@@ -935,8 +941,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
@@ -959,10 +965,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <v>7</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="13">
         <v>45642</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -973,8 +979,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
@@ -986,8 +992,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
@@ -996,8 +1002,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1006,8 +1012,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1016,8 +1022,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
@@ -1026,8 +1032,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1036,8 +1042,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1046,8 +1052,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1056,8 +1062,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="1" t="s">
         <v>34</v>
       </c>
@@ -1066,8 +1072,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="1" t="s">
         <v>35</v>
       </c>
@@ -1076,8 +1082,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1086,8 +1092,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="1" t="s">
         <v>37</v>
       </c>
@@ -1096,10 +1102,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="13">
+      <c r="A37" s="12">
         <v>8</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="13">
         <v>45643</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1110,8 +1116,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="1" t="s">
         <v>39</v>
       </c>
@@ -1120,8 +1126,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="12"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="1" t="s">
         <v>40</v>
       </c>
@@ -1130,8 +1136,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1140,8 +1146,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1150,10 +1156,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="13">
+      <c r="A42" s="12">
         <v>9</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="13">
         <v>45644</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1164,8 +1170,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
-      <c r="B43" s="12"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1174,8 +1180,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="13"/>
-      <c r="B44" s="12"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="1" t="s">
         <v>41</v>
       </c>
@@ -1184,8 +1190,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
-      <c r="B45" s="12"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1194,8 +1200,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="13"/>
-      <c r="B46" s="12"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="1" t="s">
         <v>45</v>
       </c>
@@ -1204,10 +1210,10 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="13">
+      <c r="A47" s="12">
         <v>10</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="13">
         <v>45645</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1218,8 +1224,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13"/>
-      <c r="B48" s="12"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
       <c r="C48" s="3" t="s">
         <v>46</v>
       </c>
@@ -1228,8 +1234,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13"/>
-      <c r="B49" s="12"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
       <c r="C49" s="8" t="s">
         <v>47</v>
       </c>
@@ -1238,10 +1244,10 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13">
+      <c r="A50" s="12">
         <v>11</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="13">
         <v>45646</v>
       </c>
       <c r="C50" s="9" t="s">
@@ -1252,8 +1258,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="13"/>
-      <c r="B51" s="12"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
       <c r="C51" t="s">
         <v>50</v>
       </c>
@@ -1262,10 +1268,10 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="13">
+      <c r="A52" s="12">
         <v>12</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="13">
         <v>45649</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -1276,8 +1282,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
       <c r="C53" s="1" t="s">
         <v>51</v>
       </c>
@@ -1300,10 +1306,10 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="13">
+      <c r="A55" s="12">
         <v>14</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="13">
         <v>45652</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -1314,8 +1320,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
       <c r="C56" s="1" t="s">
         <v>53</v>
       </c>
@@ -1324,8 +1330,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
       <c r="C57" s="1" t="s">
         <v>47</v>
       </c>
@@ -1348,10 +1354,10 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="13">
+      <c r="A59" s="12">
         <v>16</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="13">
         <v>45656</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -1362,8 +1368,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
       <c r="C60" s="1" t="s">
         <v>55</v>
       </c>
@@ -1372,10 +1378,10 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="13">
+      <c r="A61" s="12">
         <v>17</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="14">
         <v>45657</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -1386,8 +1392,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="13"/>
-      <c r="B62" s="16"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="15"/>
       <c r="C62" s="1" t="s">
         <v>56</v>
       </c>
@@ -1410,10 +1416,10 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="13">
+      <c r="A64" s="12">
         <v>19</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="13">
         <v>45659</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -1424,8 +1430,8 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -1434,8 +1440,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -1444,8 +1450,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -1468,10 +1474,10 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="13">
+      <c r="A69" s="12">
         <v>21</v>
       </c>
-      <c r="B69" s="12">
+      <c r="B69" s="13">
         <v>45663</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -1482,8 +1488,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="13"/>
-      <c r="B70" s="12"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="13"/>
       <c r="C70" s="1" t="s">
         <v>64</v>
       </c>
@@ -1492,10 +1498,10 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="13">
+      <c r="A71" s="12">
         <v>22</v>
       </c>
-      <c r="B71" s="12">
+      <c r="B71" s="13">
         <v>45664</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -1509,8 +1515,8 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
       <c r="C72" s="1" t="s">
         <v>67</v>
       </c>
@@ -1522,10 +1528,10 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="13">
+      <c r="A73" s="12">
         <v>23</v>
       </c>
-      <c r="B73" s="12">
+      <c r="B73" s="13">
         <v>45665</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -1539,8 +1545,8 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
       <c r="C74" s="1" t="s">
         <v>50</v>
       </c>
@@ -1563,10 +1569,10 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="13">
+      <c r="A76" s="12">
         <v>25</v>
       </c>
-      <c r="B76" s="12">
+      <c r="B76" s="13">
         <v>45667</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -1577,8 +1583,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
       <c r="C77" s="1" t="s">
         <v>50</v>
       </c>
@@ -1587,10 +1593,10 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="13">
+      <c r="A78" s="12">
         <v>26</v>
       </c>
-      <c r="B78" s="12">
+      <c r="B78" s="13">
         <v>45670</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -1601,8 +1607,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
       <c r="C79" s="1" t="s">
         <v>50</v>
       </c>
@@ -1611,10 +1617,10 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="13">
+      <c r="A80" s="12">
         <v>27</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C80" s="11" t="s">
@@ -1625,8 +1631,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
       <c r="C81" s="1" t="s">
         <v>71</v>
       </c>
@@ -1635,8 +1641,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="13"/>
-      <c r="B82" s="13"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
       <c r="C82" s="1" t="s">
         <v>72</v>
       </c>
@@ -1645,8 +1651,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="13"/>
-      <c r="B83" s="13"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
       <c r="C83" s="1" t="s">
         <v>73</v>
       </c>
@@ -1655,8 +1661,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
       <c r="C84" s="1" t="s">
         <v>74</v>
       </c>
@@ -1665,8 +1671,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
       <c r="C85" s="1" t="s">
         <v>75</v>
       </c>
@@ -1675,8 +1681,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13"/>
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
       <c r="C86" s="1" t="s">
         <v>76</v>
       </c>
@@ -1685,8 +1691,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
       <c r="C87" s="1" t="s">
         <v>79</v>
       </c>
@@ -1695,10 +1701,10 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="13">
+      <c r="A88" s="12">
         <v>28</v>
       </c>
-      <c r="B88" s="12">
+      <c r="B88" s="13">
         <v>45674</v>
       </c>
       <c r="C88" s="11" t="s">
@@ -1709,8 +1715,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="13"/>
-      <c r="B89" s="13"/>
+      <c r="A89" s="12"/>
+      <c r="B89" s="12"/>
       <c r="C89" s="1" t="s">
         <v>80</v>
       </c>
@@ -1719,8 +1725,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="13"/>
-      <c r="B90" s="13"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
       <c r="C90" s="1" t="s">
         <v>81</v>
       </c>
@@ -1729,8 +1735,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
       <c r="C91" s="1" t="s">
         <v>82</v>
       </c>
@@ -1739,8 +1745,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="13"/>
-      <c r="B92" s="13"/>
+      <c r="A92" s="12"/>
+      <c r="B92" s="12"/>
       <c r="C92" s="1" t="s">
         <v>83</v>
       </c>
@@ -1749,8 +1755,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="13"/>
-      <c r="B93" s="13"/>
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
       <c r="C93" s="1" t="s">
         <v>84</v>
       </c>
@@ -1759,8 +1765,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="13"/>
-      <c r="B94" s="13"/>
+      <c r="A94" s="12"/>
+      <c r="B94" s="12"/>
       <c r="C94" s="1" t="s">
         <v>85</v>
       </c>
@@ -1769,10 +1775,10 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="13">
+      <c r="A95" s="12">
         <v>29</v>
       </c>
-      <c r="B95" s="12">
+      <c r="B95" s="13">
         <v>45677</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -1783,8 +1789,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="13"/>
-      <c r="B96" s="13"/>
+      <c r="A96" s="12"/>
+      <c r="B96" s="12"/>
       <c r="C96" s="1" t="s">
         <v>87</v>
       </c>
@@ -1792,11 +1798,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="13">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="12">
         <v>30</v>
       </c>
-      <c r="B97" s="12">
+      <c r="B97" s="13">
         <v>45678</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -1806,9 +1812,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="13"/>
-      <c r="B98" s="13"/>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="12"/>
+      <c r="B98" s="12"/>
       <c r="C98" s="1" t="s">
         <v>89</v>
       </c>
@@ -1816,26 +1822,51 @@
         <v>3</v>
       </c>
     </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="12">
+        <v>31</v>
+      </c>
+      <c r="B99" s="13">
+        <v>45679</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D99" t="s">
+        <v>68</v>
+      </c>
+      <c r="E99" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="B88:B94"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="B80:B87"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
+  <mergeCells count="50">
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="A71:A72"/>
@@ -1850,22 +1881,26 @@
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="B47:B49"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="B88:B94"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="B80:B87"/>
     <mergeCell ref="B95:B96"/>
     <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1" display="https://github.com/Swathiloya/Daily_Status" xr:uid="{C3116F7F-791E-4165-A1F6-266C944CBF68}"/>

--- a/Daily_Task.xlsx
+++ b/Daily_Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDE7DF5-0022-4005-AE17-166A1A81485D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0DFFFC-2F29-4EA0-A361-6804F1D3D902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="96">
   <si>
     <t>S.NO</t>
   </si>
@@ -301,6 +301,18 @@
   </si>
   <si>
     <t>2.pandas merge practice</t>
+  </si>
+  <si>
+    <t>1.mainframe reiated vedio watching</t>
+  </si>
+  <si>
+    <t>2. Explore on mainframe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.Understanding the mainframe docuement </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=M6r9fNVtI6g</t>
   </si>
 </sst>
 </file>
@@ -393,13 +405,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -682,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T100"/>
+  <dimension ref="A1:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="C104" activeCellId="1" sqref="B99:B100 C104"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -718,7 +730,7 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="14">
         <v>45635</v>
       </c>
       <c r="C2" t="s">
@@ -730,7 +742,7 @@
     </row>
     <row r="3" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
-      <c r="B3" s="16"/>
+      <c r="B3" s="14"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -740,7 +752,7 @@
     </row>
     <row r="4" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
-      <c r="B4" s="16"/>
+      <c r="B4" s="14"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -750,7 +762,7 @@
     </row>
     <row r="5" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
-      <c r="B5" s="16"/>
+      <c r="B5" s="14"/>
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -762,7 +774,7 @@
     </row>
     <row r="6" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
-      <c r="B6" s="16"/>
+      <c r="B6" s="14"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -772,7 +784,7 @@
     </row>
     <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
-      <c r="B7" s="16"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1381,7 +1393,7 @@
       <c r="A61" s="12">
         <v>17</v>
       </c>
-      <c r="B61" s="14">
+      <c r="B61" s="15">
         <v>45657</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -1393,7 +1405,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
-      <c r="B62" s="15"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="1" t="s">
         <v>56</v>
       </c>
@@ -1849,8 +1861,81 @@
         <v>3</v>
       </c>
     </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="12">
+        <v>32</v>
+      </c>
+      <c r="B101" s="13">
+        <v>45680</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="12"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="52">
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="B88:B94"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="B80:B87"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A24:A36"/>
+    <mergeCell ref="B24:B36"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
     <mergeCell ref="A99:A100"/>
     <mergeCell ref="B99:B100"/>
     <mergeCell ref="A78:A79"/>
@@ -1867,40 +1952,6 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="A24:A36"/>
-    <mergeCell ref="B24:B36"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="B88:B94"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="B80:B87"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="A95:A96"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1" display="https://github.com/Swathiloya/Daily_Status" xr:uid="{C3116F7F-791E-4165-A1F6-266C944CBF68}"/>

--- a/Daily_Task.xlsx
+++ b/Daily_Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0DFFFC-2F29-4EA0-A361-6804F1D3D902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2214F2-8A4E-46F1-9043-0B3C4351145A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="98">
   <si>
     <t>S.NO</t>
   </si>
@@ -313,6 +313,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=M6r9fNVtI6g</t>
+  </si>
+  <si>
+    <t>1. Explore on mainframe</t>
+  </si>
+  <si>
+    <t>2.snowflake vedios watching (10 vedios completed)</t>
   </si>
 </sst>
 </file>
@@ -405,13 +411,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -694,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T103"/>
+  <dimension ref="A1:T105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,7 +736,7 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="16">
         <v>45635</v>
       </c>
       <c r="C2" t="s">
@@ -742,7 +748,7 @@
     </row>
     <row r="3" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
-      <c r="B3" s="14"/>
+      <c r="B3" s="16"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -752,7 +758,7 @@
     </row>
     <row r="4" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
-      <c r="B4" s="14"/>
+      <c r="B4" s="16"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -762,7 +768,7 @@
     </row>
     <row r="5" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
-      <c r="B5" s="14"/>
+      <c r="B5" s="16"/>
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -774,7 +780,7 @@
     </row>
     <row r="6" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
-      <c r="B6" s="14"/>
+      <c r="B6" s="16"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -784,7 +790,7 @@
     </row>
     <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
-      <c r="B7" s="14"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1393,7 +1399,7 @@
       <c r="A61" s="12">
         <v>17</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="14">
         <v>45657</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -1405,7 +1411,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
-      <c r="B62" s="16"/>
+      <c r="B62" s="15"/>
       <c r="C62" s="1" t="s">
         <v>56</v>
       </c>
@@ -1847,7 +1853,7 @@
       <c r="D99" t="s">
         <v>68</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1898,28 +1904,49 @@
         <v>3</v>
       </c>
     </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="12">
+        <v>33</v>
+      </c>
+      <c r="B104" s="13">
+        <v>45681</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D105" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="B88:B94"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="B80:B87"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
+  <mergeCells count="54">
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="A71:A72"/>
@@ -1936,27 +1963,37 @@
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="B80:B87"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="B88:B94"/>
     <mergeCell ref="A99:A100"/>
     <mergeCell ref="B99:B100"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1" display="https://github.com/Swathiloya/Daily_Status" xr:uid="{C3116F7F-791E-4165-A1F6-266C944CBF68}"/>
+    <hyperlink ref="E99" r:id="rId2" xr:uid="{AA2A05D7-557A-4224-B2F4-7DA774956BFA}"/>
+    <hyperlink ref="E105" r:id="rId3" xr:uid="{90E4156A-06F2-49E2-986B-AB8FB4052A21}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Daily_Task.xlsx
+++ b/Daily_Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2214F2-8A4E-46F1-9043-0B3C4351145A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A345EE41-7456-4904-9478-FA236956B7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="100">
   <si>
     <t>S.NO</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>2.snowflake vedios watching (10 vedios completed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Mainframe commands &amp;   about mainframe watching videos </t>
+  </si>
+  <si>
+    <t>https://youtu.be/_8FgWep9qEk?si=EhJ0b6_00vSVeWm3</t>
   </si>
 </sst>
 </file>
@@ -411,13 +417,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -700,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T105"/>
+  <dimension ref="A1:T107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -736,7 +742,7 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="14">
         <v>45635</v>
       </c>
       <c r="C2" t="s">
@@ -748,7 +754,7 @@
     </row>
     <row r="3" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
-      <c r="B3" s="16"/>
+      <c r="B3" s="14"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -758,7 +764,7 @@
     </row>
     <row r="4" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
-      <c r="B4" s="16"/>
+      <c r="B4" s="14"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -768,7 +774,7 @@
     </row>
     <row r="5" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
-      <c r="B5" s="16"/>
+      <c r="B5" s="14"/>
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -780,7 +786,7 @@
     </row>
     <row r="6" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
-      <c r="B6" s="16"/>
+      <c r="B6" s="14"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -790,7 +796,7 @@
     </row>
     <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
-      <c r="B7" s="16"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1399,7 +1405,7 @@
       <c r="A61" s="12">
         <v>17</v>
       </c>
-      <c r="B61" s="14">
+      <c r="B61" s="15">
         <v>45657</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -1411,7 +1417,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
-      <c r="B62" s="15"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="1" t="s">
         <v>56</v>
       </c>
@@ -1931,12 +1937,77 @@
         <v>69</v>
       </c>
     </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="12">
+        <v>34</v>
+      </c>
+      <c r="B106" s="13">
+        <v>45684</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D106" t="s">
+        <v>68</v>
+      </c>
+      <c r="E106" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D107" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
+  <mergeCells count="56">
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="B88:B94"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="B80:B87"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
     <mergeCell ref="A104:A105"/>
     <mergeCell ref="B104:B105"/>
+    <mergeCell ref="A24:A36"/>
+    <mergeCell ref="B24:B36"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B8:B13"/>
@@ -1947,46 +2018,10 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="A24:A36"/>
-    <mergeCell ref="B24:B36"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="B80:B87"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="B88:B94"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1" display="https://github.com/Swathiloya/Daily_Status" xr:uid="{C3116F7F-791E-4165-A1F6-266C944CBF68}"/>

--- a/Daily_Task.xlsx
+++ b/Daily_Task.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daily_Status\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New folder (4)\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A345EE41-7456-4904-9478-FA236956B7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645D37BD-E31C-4094-A575-65C5C32A94C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="102">
   <si>
     <t>S.NO</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>https://youtu.be/_8FgWep9qEk?si=EhJ0b6_00vSVeWm3</t>
+  </si>
+  <si>
+    <t>1.watched some videos about mainframe commands and practiced Linux commands</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -417,13 +423,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -706,17 +712,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T107"/>
+  <dimension ref="A1:T112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.44140625" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="57.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="69.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" customWidth="1"/>
     <col min="5" max="5" width="89.44140625" customWidth="1"/>
   </cols>
@@ -742,7 +748,7 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="16">
         <v>45635</v>
       </c>
       <c r="C2" t="s">
@@ -754,7 +760,7 @@
     </row>
     <row r="3" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
-      <c r="B3" s="14"/>
+      <c r="B3" s="16"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -764,7 +770,7 @@
     </row>
     <row r="4" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
-      <c r="B4" s="14"/>
+      <c r="B4" s="16"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -774,7 +780,7 @@
     </row>
     <row r="5" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
-      <c r="B5" s="14"/>
+      <c r="B5" s="16"/>
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -786,7 +792,7 @@
     </row>
     <row r="6" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
-      <c r="B6" s="14"/>
+      <c r="B6" s="16"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -796,7 +802,7 @@
     </row>
     <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
-      <c r="B7" s="14"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1405,7 +1411,7 @@
       <c r="A61" s="12">
         <v>17</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="14">
         <v>45657</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -1417,7 +1423,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
-      <c r="B62" s="16"/>
+      <c r="B62" s="15"/>
       <c r="C62" s="1" t="s">
         <v>56</v>
       </c>
@@ -1950,7 +1956,7 @@
       <c r="D106" t="s">
         <v>68</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="7" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1964,32 +1970,58 @@
         <v>68</v>
       </c>
     </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="12">
+        <v>35</v>
+      </c>
+      <c r="B108" s="13">
+        <v>45685</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D108" t="s">
+        <v>68</v>
+      </c>
+      <c r="E108" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="12"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C112" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="B88:B94"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="B80:B87"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
+  <mergeCells count="58">
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
     <mergeCell ref="A104:A105"/>
     <mergeCell ref="B104:B105"/>
     <mergeCell ref="A24:A36"/>
@@ -2006,29 +2038,38 @@
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="B80:B87"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="B88:B94"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1" display="https://github.com/Swathiloya/Daily_Status" xr:uid="{C3116F7F-791E-4165-A1F6-266C944CBF68}"/>
     <hyperlink ref="E99" r:id="rId2" xr:uid="{AA2A05D7-557A-4224-B2F4-7DA774956BFA}"/>
     <hyperlink ref="E105" r:id="rId3" xr:uid="{90E4156A-06F2-49E2-986B-AB8FB4052A21}"/>
+    <hyperlink ref="E106" r:id="rId4" xr:uid="{DC66BAD1-01D1-4B2B-939D-C317AE460C3C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Daily_Task.xlsx
+++ b/Daily_Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New folder (4)\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645D37BD-E31C-4094-A575-65C5C32A94C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BF10B5-3D85-4BE1-A558-A0B656FFD252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="102">
   <si>
     <t>S.NO</t>
   </si>
@@ -330,7 +330,8 @@
     <t>1.watched some videos about mainframe commands and practiced Linux commands</t>
   </si>
   <si>
-    <t>s</t>
+    <t>1.Project task of tms_main and tms_test code understanding 
+2.Group discussion Deepseek AI</t>
   </si>
 </sst>
 </file>
@@ -383,7 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -423,13 +424,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -712,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T112"/>
+  <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -748,7 +752,7 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="14">
         <v>45635</v>
       </c>
       <c r="C2" t="s">
@@ -760,7 +764,7 @@
     </row>
     <row r="3" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
-      <c r="B3" s="16"/>
+      <c r="B3" s="14"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -770,7 +774,7 @@
     </row>
     <row r="4" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
-      <c r="B4" s="16"/>
+      <c r="B4" s="14"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -780,7 +784,7 @@
     </row>
     <row r="5" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
-      <c r="B5" s="16"/>
+      <c r="B5" s="14"/>
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -792,7 +796,7 @@
     </row>
     <row r="6" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
-      <c r="B6" s="16"/>
+      <c r="B6" s="14"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -802,7 +806,7 @@
     </row>
     <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
-      <c r="B7" s="16"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1411,7 +1415,7 @@
       <c r="A61" s="12">
         <v>17</v>
       </c>
-      <c r="B61" s="14">
+      <c r="B61" s="15">
         <v>45657</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -1423,7 +1427,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
-      <c r="B62" s="15"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="1" t="s">
         <v>56</v>
       </c>
@@ -1997,13 +2001,64 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C112" s="1" t="s">
+    <row r="110" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
+        <v>36</v>
+      </c>
+      <c r="B110" s="6">
+        <v>45686</v>
+      </c>
+      <c r="C110" s="8" t="s">
         <v>101</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="B88:B94"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="B80:B87"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="A24:A36"/>
+    <mergeCell ref="B24:B36"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
     <mergeCell ref="A108:A109"/>
     <mergeCell ref="B108:B109"/>
     <mergeCell ref="A106:A107"/>
@@ -2020,48 +2075,6 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="A24:A36"/>
-    <mergeCell ref="B24:B36"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="B80:B87"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="B88:B94"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1" display="https://github.com/Swathiloya/Daily_Status" xr:uid="{C3116F7F-791E-4165-A1F6-266C944CBF68}"/>

--- a/Daily_Task.xlsx
+++ b/Daily_Task.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New folder (4)\Daily_Status\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\swathi\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BF10B5-3D85-4BE1-A558-A0B656FFD252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01620FDD-FFA4-4FAB-A678-8253289B5902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="102">
   <si>
     <t>S.NO</t>
   </si>
@@ -418,6 +418,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -431,9 +434,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -716,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T110"/>
+  <dimension ref="A1:T112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="B100" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,10 +749,10 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="15">
         <v>45635</v>
       </c>
       <c r="C2" t="s">
@@ -763,8 +763,8 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="15"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -773,8 +773,8 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="15"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -783,8 +783,8 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="15"/>
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -795,8 +795,8 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="15"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -805,8 +805,8 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -815,10 +815,10 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="A8" s="13">
         <v>2</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="14">
         <v>45636</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -829,8 +829,8 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -840,8 +840,8 @@
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
@@ -850,8 +850,8 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
@@ -860,8 +860,8 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -870,8 +870,8 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
@@ -880,10 +880,10 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>3</v>
-      </c>
-      <c r="B14" s="13">
+      <c r="A14" s="13">
+        <v>3</v>
+      </c>
+      <c r="B14" s="14">
         <v>45637</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -894,8 +894,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
@@ -904,8 +904,8 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
@@ -914,10 +914,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="A17" s="13">
         <v>4</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="14">
         <v>45638</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -928,8 +928,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
@@ -938,8 +938,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
@@ -948,10 +948,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
+      <c r="A20" s="13">
         <v>5</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="14">
         <v>45639</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -965,8 +965,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
@@ -975,8 +975,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
@@ -999,10 +999,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
+      <c r="A24" s="13">
         <v>7</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="14">
         <v>45642</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1013,8 +1013,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1026,8 +1026,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1036,8 +1036,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1046,8 +1046,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1056,8 +1056,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
@@ -1066,8 +1066,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1076,8 +1076,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1086,8 +1086,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1096,8 +1096,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="1" t="s">
         <v>34</v>
       </c>
@@ -1106,8 +1106,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="1" t="s">
         <v>35</v>
       </c>
@@ -1116,8 +1116,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1126,8 +1126,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="1" t="s">
         <v>37</v>
       </c>
@@ -1136,10 +1136,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="12">
+      <c r="A37" s="13">
         <v>8</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="14">
         <v>45643</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1150,8 +1150,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="1" t="s">
         <v>39</v>
       </c>
@@ -1160,8 +1160,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="1" t="s">
         <v>40</v>
       </c>
@@ -1170,8 +1170,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1180,8 +1180,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1190,10 +1190,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="12">
+      <c r="A42" s="13">
         <v>9</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="14">
         <v>45644</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1204,8 +1204,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1214,8 +1214,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="1" t="s">
         <v>41</v>
       </c>
@@ -1224,8 +1224,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1234,8 +1234,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="1" t="s">
         <v>45</v>
       </c>
@@ -1244,10 +1244,10 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="12">
+      <c r="A47" s="13">
         <v>10</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="14">
         <v>45645</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1258,8 +1258,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="3" t="s">
         <v>46</v>
       </c>
@@ -1268,8 +1268,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="8" t="s">
         <v>47</v>
       </c>
@@ -1278,10 +1278,10 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12">
+      <c r="A50" s="13">
         <v>11</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="14">
         <v>45646</v>
       </c>
       <c r="C50" s="9" t="s">
@@ -1292,8 +1292,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
       <c r="C51" t="s">
         <v>50</v>
       </c>
@@ -1302,10 +1302,10 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="12">
+      <c r="A52" s="13">
         <v>12</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="14">
         <v>45649</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -1316,8 +1316,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
       <c r="C53" s="1" t="s">
         <v>51</v>
       </c>
@@ -1340,10 +1340,10 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="12">
+      <c r="A55" s="13">
         <v>14</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="14">
         <v>45652</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -1354,8 +1354,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
       <c r="C56" s="1" t="s">
         <v>53</v>
       </c>
@@ -1364,8 +1364,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
       <c r="C57" s="1" t="s">
         <v>47</v>
       </c>
@@ -1388,10 +1388,10 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="12">
+      <c r="A59" s="13">
         <v>16</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="14">
         <v>45656</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -1402,8 +1402,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="1" t="s">
         <v>55</v>
       </c>
@@ -1412,10 +1412,10 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="12">
+      <c r="A61" s="13">
         <v>17</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="16">
         <v>45657</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -1426,8 +1426,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="12"/>
-      <c r="B62" s="16"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="17"/>
       <c r="C62" s="1" t="s">
         <v>56</v>
       </c>
@@ -1450,10 +1450,10 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="12">
+      <c r="A64" s="13">
         <v>19</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="14">
         <v>45659</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -1464,8 +1464,8 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -1474,8 +1474,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -1484,8 +1484,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -1508,10 +1508,10 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="12">
+      <c r="A69" s="13">
         <v>21</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B69" s="14">
         <v>45663</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -1522,8 +1522,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="12"/>
-      <c r="B70" s="13"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="14"/>
       <c r="C70" s="1" t="s">
         <v>64</v>
       </c>
@@ -1532,10 +1532,10 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="12">
+      <c r="A71" s="13">
         <v>22</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71" s="14">
         <v>45664</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -1549,8 +1549,8 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
       <c r="C72" s="1" t="s">
         <v>67</v>
       </c>
@@ -1562,10 +1562,10 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="12">
+      <c r="A73" s="13">
         <v>23</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73" s="14">
         <v>45665</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -1579,8 +1579,8 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
       <c r="C74" s="1" t="s">
         <v>50</v>
       </c>
@@ -1603,10 +1603,10 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="12">
+      <c r="A76" s="13">
         <v>25</v>
       </c>
-      <c r="B76" s="13">
+      <c r="B76" s="14">
         <v>45667</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -1617,8 +1617,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
       <c r="C77" s="1" t="s">
         <v>50</v>
       </c>
@@ -1627,10 +1627,10 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="12">
+      <c r="A78" s="13">
         <v>26</v>
       </c>
-      <c r="B78" s="13">
+      <c r="B78" s="14">
         <v>45670</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -1641,8 +1641,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
       <c r="C79" s="1" t="s">
         <v>50</v>
       </c>
@@ -1651,10 +1651,10 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="12">
+      <c r="A80" s="13">
         <v>27</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="13" t="s">
         <v>78</v>
       </c>
       <c r="C80" s="11" t="s">
@@ -1665,8 +1665,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
       <c r="C81" s="1" t="s">
         <v>71</v>
       </c>
@@ -1675,8 +1675,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="13"/>
       <c r="C82" s="1" t="s">
         <v>72</v>
       </c>
@@ -1685,8 +1685,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
+      <c r="A83" s="13"/>
+      <c r="B83" s="13"/>
       <c r="C83" s="1" t="s">
         <v>73</v>
       </c>
@@ -1695,8 +1695,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
       <c r="C84" s="1" t="s">
         <v>74</v>
       </c>
@@ -1705,8 +1705,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
       <c r="C85" s="1" t="s">
         <v>75</v>
       </c>
@@ -1715,8 +1715,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
       <c r="C86" s="1" t="s">
         <v>76</v>
       </c>
@@ -1725,8 +1725,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="13"/>
       <c r="C87" s="1" t="s">
         <v>79</v>
       </c>
@@ -1735,10 +1735,10 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="12">
+      <c r="A88" s="13">
         <v>28</v>
       </c>
-      <c r="B88" s="13">
+      <c r="B88" s="14">
         <v>45674</v>
       </c>
       <c r="C88" s="11" t="s">
@@ -1749,8 +1749,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
+      <c r="A89" s="13"/>
+      <c r="B89" s="13"/>
       <c r="C89" s="1" t="s">
         <v>80</v>
       </c>
@@ -1759,8 +1759,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
+      <c r="A90" s="13"/>
+      <c r="B90" s="13"/>
       <c r="C90" s="1" t="s">
         <v>81</v>
       </c>
@@ -1769,8 +1769,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="13"/>
       <c r="C91" s="1" t="s">
         <v>82</v>
       </c>
@@ -1779,8 +1779,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
+      <c r="A92" s="13"/>
+      <c r="B92" s="13"/>
       <c r="C92" s="1" t="s">
         <v>83</v>
       </c>
@@ -1789,8 +1789,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
+      <c r="A93" s="13"/>
+      <c r="B93" s="13"/>
       <c r="C93" s="1" t="s">
         <v>84</v>
       </c>
@@ -1799,8 +1799,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
+      <c r="A94" s="13"/>
+      <c r="B94" s="13"/>
       <c r="C94" s="1" t="s">
         <v>85</v>
       </c>
@@ -1809,10 +1809,10 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="12">
+      <c r="A95" s="13">
         <v>29</v>
       </c>
-      <c r="B95" s="13">
+      <c r="B95" s="14">
         <v>45677</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -1823,8 +1823,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="13"/>
       <c r="C96" s="1" t="s">
         <v>87</v>
       </c>
@@ -1833,10 +1833,10 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="12">
+      <c r="A97" s="13">
         <v>30</v>
       </c>
-      <c r="B97" s="13">
+      <c r="B97" s="14">
         <v>45678</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -1847,8 +1847,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
       <c r="C98" s="1" t="s">
         <v>89</v>
       </c>
@@ -1857,10 +1857,10 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="12">
+      <c r="A99" s="13">
         <v>31</v>
       </c>
-      <c r="B99" s="13">
+      <c r="B99" s="14">
         <v>45679</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -1874,8 +1874,8 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
+      <c r="A100" s="13"/>
+      <c r="B100" s="13"/>
       <c r="C100" s="1" t="s">
         <v>91</v>
       </c>
@@ -1884,10 +1884,10 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="12">
+      <c r="A101" s="13">
         <v>32</v>
       </c>
-      <c r="B101" s="13">
+      <c r="B101" s="14">
         <v>45680</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -1901,8 +1901,8 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="13"/>
       <c r="C102" s="1" t="s">
         <v>93</v>
       </c>
@@ -1911,8 +1911,8 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
+      <c r="A103" s="13"/>
+      <c r="B103" s="13"/>
       <c r="C103" s="1" t="s">
         <v>94</v>
       </c>
@@ -1921,10 +1921,10 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="12">
+      <c r="A104" s="13">
         <v>33</v>
       </c>
-      <c r="B104" s="13">
+      <c r="B104" s="14">
         <v>45681</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -1935,8 +1935,8 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="12"/>
-      <c r="B105" s="12"/>
+      <c r="A105" s="13"/>
+      <c r="B105" s="13"/>
       <c r="C105" s="1" t="s">
         <v>97</v>
       </c>
@@ -1948,10 +1948,10 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="12">
+      <c r="A106" s="13">
         <v>34</v>
       </c>
-      <c r="B106" s="13">
+      <c r="B106" s="14">
         <v>45684</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -1965,8 +1965,8 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="12"/>
-      <c r="B107" s="12"/>
+      <c r="A107" s="13"/>
+      <c r="B107" s="13"/>
       <c r="C107" s="1" t="s">
         <v>50</v>
       </c>
@@ -1975,10 +1975,10 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="12">
+      <c r="A108" s="13">
         <v>35</v>
       </c>
-      <c r="B108" s="13">
+      <c r="B108" s="14">
         <v>45685</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -1992,8 +1992,8 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="12"/>
-      <c r="B109" s="12"/>
+      <c r="A109" s="13"/>
+      <c r="B109" s="13"/>
       <c r="C109" s="1" t="s">
         <v>50</v>
       </c>
@@ -2011,7 +2011,32 @@
       <c r="C110" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D110" s="17" t="s">
+      <c r="D110" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="4">
+        <v>37</v>
+      </c>
+      <c r="B111" s="6">
+        <v>45687</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B112" s="6">
+        <v>45688</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D112" s="12" t="s">
         <v>68</v>
       </c>
     </row>
